--- a/battleworld/Excel/GoodsTable_商品表.xlsx
+++ b/battleworld/Excel/GoodsTable_商品表.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\MetaWorldSaved\Saved\MetaWorld\Project\Edit\Dragonverse\battleworld\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25B7984-712C-468E-8504-241CDF424D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB6F7AD-A829-4106-A964-3BF8BDC133C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>int</t>
   </si>
@@ -75,6 +75,10 @@
   </si>
   <si>
     <t>10次战斗机会</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Battle_Times_1</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -93,6 +97,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -113,6 +118,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -579,7 +585,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -662,7 +668,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
